--- a/Σημειώσεις - διορθώσεις.xlsx
+++ b/Σημειώσεις - διορθώσεις.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKPar\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKPar\Documents\GitHub\SLAVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CB28AB-D4EA-4BF9-A494-40519A6AE58F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E796ABB-8B52-42BD-AF5C-5F5123F11329}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>PG / RE</t>
   </si>
   <si>
-    <t>cardiologicalAnalysis=</t>
-  </si>
-  <si>
     <t>5. doseMenu</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t>default σε σχεδόν κάθε widget / πρότυπο οσο γίνεται</t>
+  </si>
+  <si>
+    <t>cardiologicalAnalysis</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>37</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="13"/>
     </row>
@@ -905,7 +905,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>37</v>
@@ -913,20 +913,20 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>37</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>37</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>37</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>37</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>37</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>37</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>37</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>37</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>37</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>37</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>37</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>37</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>37</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>37</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>37</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>37</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>37</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>37</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>6</v>
@@ -1078,23 +1078,23 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>6</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Σημειώσεις - διορθώσεις.xlsx
+++ b/Σημειώσεις - διορθώσεις.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKPar\Documents\GitHub\SLAVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E796ABB-8B52-42BD-AF5C-5F5123F11329}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F538B6-AE90-4416-B7F8-E5A0A7A96A62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="2" r:id="rId1"/>
+    <sheet name="db" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
   <si>
     <t>date</t>
   </si>
@@ -247,6 +248,78 @@
   </si>
   <si>
     <t>cardiologicalAnalysis</t>
+  </si>
+  <si>
+    <t>1.entry</t>
+  </si>
+  <si>
+    <t>2.menuEnt</t>
+  </si>
+  <si>
+    <t>3. medic</t>
+  </si>
+  <si>
+    <t>rythmGreek</t>
+  </si>
+  <si>
+    <t>κανονικός</t>
+  </si>
+  <si>
+    <t>auditoryLungGreek</t>
+  </si>
+  <si>
+    <t>κατά φύσιν</t>
+  </si>
+  <si>
+    <t>coughGreek</t>
+  </si>
+  <si>
+    <t>ήπια</t>
+  </si>
+  <si>
+    <t>mucousGreek</t>
+  </si>
+  <si>
+    <t>heartRateGreek</t>
+  </si>
+  <si>
+    <t>dentalGreek</t>
+  </si>
+  <si>
+    <t>lymphGreek</t>
+  </si>
+  <si>
+    <t>φυσιολογική</t>
+  </si>
+  <si>
+    <t>κανονική σύγκλειση</t>
+  </si>
+  <si>
+    <t>όχι</t>
+  </si>
+  <si>
+    <t>ακέραιες</t>
+  </si>
+  <si>
+    <t>ικανοποιητική σύγκλειση</t>
+  </si>
+  <si>
+    <t>πάχυνση στεφανιαίων γλωχίνων</t>
+  </si>
+  <si>
+    <t>κανονική</t>
+  </si>
+  <si>
+    <t>στροβιλώδης</t>
+  </si>
+  <si>
+    <t>Φλεβοκομβικός ρυθμός.</t>
+  </si>
+  <si>
+    <t>AS 1</t>
+  </si>
+  <si>
+    <t>DMVD 1</t>
   </si>
 </sst>
 </file>
@@ -289,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -356,11 +429,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,6 +482,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,81 +766,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575A7653-7C81-4605-99EB-8D05F24C1893}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="132.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -761,7 +870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>73</v>
       </c>
@@ -769,7 +878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -777,7 +886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -785,7 +894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -793,7 +902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -801,7 +910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1115,4 +1224,383 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1D71DD-7A10-4020-994E-22C99FEED510}">
+  <dimension ref="B1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="14">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="14">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Σημειώσεις - διορθώσεις.xlsx
+++ b/Σημειώσεις - διορθώσεις.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKPar\Documents\GitHub\SLAVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F538B6-AE90-4416-B7F8-E5A0A7A96A62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E699786-3F03-4A67-89A2-D6EE518089EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="390" windowWidth="15375" windowHeight="10530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="2" r:id="rId1"/>
-    <sheet name="db" sheetId="3" r:id="rId2"/>
+    <sheet name="AS 1" sheetId="3" r:id="rId2"/>
+    <sheet name="DMVD 1" sheetId="4" r:id="rId3"/>
+    <sheet name="DMVD 2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="108">
   <si>
     <t>date</t>
   </si>
@@ -320,6 +322,36 @@
   </si>
   <si>
     <t>DMVD 1</t>
+  </si>
+  <si>
+    <t>μέτρια</t>
+  </si>
+  <si>
+    <t>μέτριου βαθμού πάχυνση της διαφραγματικής γλωχίνας και λιγότερο της τοιχωματικής</t>
+  </si>
+  <si>
+    <t>ελαφρώς ανεπαρκής σύγκλειση με ήπια πρόπτωση</t>
+  </si>
+  <si>
+    <t>ήπιου βαθμού</t>
+  </si>
+  <si>
+    <t xml:space="preserve">φυσιολογική </t>
+  </si>
+  <si>
+    <t>DMVD 2</t>
+  </si>
+  <si>
+    <t>σημαντικού βαθμού πάχυνση της διαφραγματικής γλωχίνας και λιγότερο της τοιχωματικής</t>
+  </si>
+  <si>
+    <t>ανεπαρκής σύγκλειση με μέτρια πρόπτωση</t>
+  </si>
+  <si>
+    <t>σημαντικού βαθμού</t>
+  </si>
+  <si>
+    <t xml:space="preserve">αυξημένη ταχύτητα Ε κύματος </t>
   </si>
 </sst>
 </file>
@@ -480,11 +512,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,10 +999,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="14"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -1228,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1D71DD-7A10-4020-994E-22C99FEED510}">
-  <dimension ref="B1:G27"/>
+  <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,17 +1272,16 @@
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="81.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>96</v>
       </c>
-      <c r="G1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -1260,11 +1291,8 @@
       <c r="D3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -1274,11 +1302,8 @@
       <c r="D4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1288,11 +1313,8 @@
       <c r="D5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -1302,11 +1324,8 @@
       <c r="D6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -1316,11 +1335,8 @@
       <c r="D7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>2</v>
       </c>
@@ -1330,11 +1346,8 @@
       <c r="D8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1344,11 +1357,8 @@
       <c r="D9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1358,11 +1368,8 @@
       <c r="D10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>2</v>
       </c>
@@ -1372,11 +1379,8 @@
       <c r="D11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -1386,11 +1390,8 @@
       <c r="D12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -1400,11 +1401,8 @@
       <c r="D13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>2</v>
       </c>
@@ -1414,11 +1412,8 @@
       <c r="D14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>2</v>
       </c>
@@ -1428,11 +1423,8 @@
       <c r="D15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>2</v>
       </c>
@@ -1442,11 +1434,8 @@
       <c r="D16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>2</v>
       </c>
@@ -1456,12 +1445,9 @@
       <c r="D17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="14">
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1470,12 +1456,9 @@
       <c r="D18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="14">
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="13">
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1484,11 +1467,8 @@
       <c r="D19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>2</v>
       </c>
@@ -1498,11 +1478,8 @@
       <c r="D20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>2</v>
       </c>
@@ -1512,11 +1489,8 @@
       <c r="D21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -1526,78 +1500,697 @@
       <c r="D22" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F23">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3" t="s">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F24">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
-        <v>2</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F26">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="D28" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2243AA7D-F432-4CF4-A005-EB0D9D875CD1}">
+  <dimension ref="B2:D29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D27" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>17</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>17</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F27">
-        <v>17</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F15D6A-89EE-48F7-AA49-2B0EDEEAC811}">
+  <dimension ref="B2:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>19</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Σημειώσεις - διορθώσεις.xlsx
+++ b/Σημειώσεις - διορθώσεις.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKPar\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKPar\Documents\GitHub\SLAVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CB28AB-D4EA-4BF9-A494-40519A6AE58F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075CB667-8D79-403F-81FC-45CEE995BD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,9 +231,6 @@
     <t>Να υπάρχει επιλογή και στα δύο medications να γράψω μόνο το νούμερο 1 !!</t>
   </si>
   <si>
-    <t>αυτό που υπάρχει τώρα + τα παραπάνω αν γίνεται</t>
-  </si>
-  <si>
     <t>να μπορώ να συμπληρώσω δύο αριθμούς και να βγάλει αποτέλεσμα δύο μήνες</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t>default σε σχεδόν κάθε widget / πρότυπο οσο γίνεται</t>
+  </si>
+  <si>
+    <t>οι τελείες-&gt; κόμματα, να μην υπάρχουν μείον (-) πουθενά, μετακίνηση ενός δεκαδικού στα mm --&gt; cm</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -916,7 +916,7 @@
         <v>43</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1089,12 +1089,12 @@
         <v>66</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>6</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Σημειώσεις - διορθώσεις.xlsx
+++ b/Σημειώσεις - διορθώσεις.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKPar\Documents\GitHub\SLAVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075CB667-8D79-403F-81FC-45CEE995BD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC67EAD0-9802-4385-80A3-DA79EB922319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="157">
   <si>
     <t>date</t>
   </si>
@@ -247,13 +248,262 @@
   </si>
   <si>
     <t>οι τελείες-&gt; κόμματα, να μην υπάρχουν μείον (-) πουθενά, μετακίνηση ενός δεκαδικού στα mm --&gt; cm</t>
+  </si>
+  <si>
+    <t>Patient Data</t>
+  </si>
+  <si>
+    <t>Cardio Canine</t>
+  </si>
+  <si>
+    <t>Attached images</t>
+  </si>
+  <si>
+    <t>M-Mode</t>
+  </si>
+  <si>
+    <t>Doppler</t>
+  </si>
+  <si>
+    <t>B-Mode</t>
+  </si>
+  <si>
+    <t>Owner name</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>Aorta</t>
+  </si>
+  <si>
+    <t>Aorta/LA</t>
+  </si>
+  <si>
+    <t>Breed</t>
+  </si>
+  <si>
+    <t>EPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AV Vmax </t>
+  </si>
+  <si>
+    <t>Ao Diam</t>
+  </si>
+  <si>
+    <t>Animal name</t>
+  </si>
+  <si>
+    <t>Left Ventricle</t>
+  </si>
+  <si>
+    <t>AV max PG</t>
+  </si>
+  <si>
+    <t>AVA (Diam)</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>IVSd</t>
+  </si>
+  <si>
+    <t>LA Diam</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LVIDd </t>
+  </si>
+  <si>
+    <t>MV E Vel</t>
+  </si>
+  <si>
+    <t>LA/Ao</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>LVPWd</t>
+  </si>
+  <si>
+    <t>MV A Vel</t>
+  </si>
+  <si>
+    <t>Sphericity Index</t>
+  </si>
+  <si>
+    <t>Exam Date</t>
+  </si>
+  <si>
+    <t>IVSs</t>
+  </si>
+  <si>
+    <t>MV E PG</t>
+  </si>
+  <si>
+    <t>EF A-L</t>
+  </si>
+  <si>
+    <t>Report Date</t>
+  </si>
+  <si>
+    <t>LVIDs</t>
+  </si>
+  <si>
+    <t>MV A PG</t>
+  </si>
+  <si>
+    <t>LVAd A4C</t>
+  </si>
+  <si>
+    <t>LVPWs</t>
+  </si>
+  <si>
+    <t>MV PHT</t>
+  </si>
+  <si>
+    <t>LVLd A4C</t>
+  </si>
+  <si>
+    <t>%LV FS</t>
+  </si>
+  <si>
+    <t>MVA (PHT)</t>
+  </si>
+  <si>
+    <t>LVEDV (A-L)</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>MV E/A</t>
+  </si>
+  <si>
+    <t>LVAs A4C</t>
+  </si>
+  <si>
+    <t>HR (ECG)</t>
+  </si>
+  <si>
+    <t>MV Dec Time</t>
+  </si>
+  <si>
+    <t>LVLs A4C</t>
+  </si>
+  <si>
+    <t>% IVS</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>LVESV (A-L)</t>
+  </si>
+  <si>
+    <t>%PW</t>
+  </si>
+  <si>
+    <t>MR Vmax</t>
+  </si>
+  <si>
+    <t>LVEDV index (A-L)</t>
+  </si>
+  <si>
+    <t>LV Mass</t>
+  </si>
+  <si>
+    <t>MR max PG</t>
+  </si>
+  <si>
+    <t>LVESV index (A-L)</t>
+  </si>
+  <si>
+    <t>Relative Wall Thickness</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>EF (A-L)</t>
+  </si>
+  <si>
+    <t>LVIDDn</t>
+  </si>
+  <si>
+    <t>TR Vmax</t>
+  </si>
+  <si>
+    <t>SV (A-L)</t>
+  </si>
+  <si>
+    <t>LVIDSn</t>
+  </si>
+  <si>
+    <t>TR max PG</t>
+  </si>
+  <si>
+    <t>EF SP (Simpson)</t>
+  </si>
+  <si>
+    <t>Pulmonary A</t>
+  </si>
+  <si>
+    <t>LVEDV index (MOD A4C)</t>
+  </si>
+  <si>
+    <t>PA Vmax</t>
+  </si>
+  <si>
+    <t>LVESV index (MOD A4C)</t>
+  </si>
+  <si>
+    <t>PA max PG</t>
+  </si>
+  <si>
+    <t>EF (MOD A4C)</t>
+  </si>
+  <si>
+    <t>AVA (VTI)</t>
+  </si>
+  <si>
+    <t>SV (MOD A4C)</t>
+  </si>
+  <si>
+    <t>Pulmonary Capillary Wedge Pressure</t>
+  </si>
+  <si>
+    <t>SV index (MOD A4C)</t>
+  </si>
+  <si>
+    <t>MV E Vek</t>
+  </si>
+  <si>
+    <t>EF MOD (Simpson)</t>
+  </si>
+  <si>
+    <t>LVAd index A4C</t>
+  </si>
+  <si>
+    <t>LVAd index (MOD A4C)</t>
+  </si>
+  <si>
+    <t>LVEDV (MOD A4C)</t>
+  </si>
+  <si>
+    <t>LVESV (MOD A4C)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +518,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,8 +546,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -356,11 +626,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,6 +679,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575A7653-7C81-4605-99EB-8D05F24C1893}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -1115,4 +1405,337 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888694CD-1955-4787-B9C9-12DDB406919D}">
+  <dimension ref="B2:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Σημειώσεις - διορθώσεις.xlsx
+++ b/Σημειώσεις - διορθώσεις.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKPar\Documents\GitHub\SLAVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC67EAD0-9802-4385-80A3-DA79EB922319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951871E0-91CF-4E26-8B16-C66825551DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="159">
   <si>
     <t>date</t>
   </si>
@@ -497,6 +497,12 @@
   </si>
   <si>
     <t>LVESV (MOD A4C)</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Performing Physician</t>
   </si>
 </sst>
 </file>
@@ -677,9 +683,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -688,6 +691,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1148,10 +1154,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="18"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -1412,36 +1418,36 @@
   <dimension ref="B2:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1466,7 +1472,7 @@
       <c r="C5" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E5" t="s">
@@ -1505,10 +1511,10 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>97</v>
       </c>
       <c r="E8" t="s">
@@ -1553,11 +1559,14 @@
       <c r="D11" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>111</v>
       </c>
@@ -1569,6 +1578,9 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>114</v>
       </c>
@@ -1580,18 +1592,18 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>117</v>
       </c>
       <c r="D14" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>120</v>
       </c>
       <c r="D15" t="s">
@@ -1602,7 +1614,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>123</v>
       </c>
       <c r="D16" t="s">
@@ -1613,7 +1625,7 @@
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>126</v>
       </c>
       <c r="D17" t="s">
@@ -1624,7 +1636,7 @@
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>129</v>
       </c>
       <c r="D18" t="s">
@@ -1635,7 +1647,7 @@
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>132</v>
       </c>
       <c r="D19" t="s">
@@ -1646,7 +1658,7 @@
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>135</v>
       </c>
       <c r="D20" t="s">
@@ -1657,7 +1669,7 @@
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>138</v>
       </c>
       <c r="D21" t="s">
@@ -1671,7 +1683,7 @@
       <c r="D22" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1687,7 +1699,7 @@
       <c r="D24" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1695,7 +1707,7 @@
       <c r="D25" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1703,7 +1715,7 @@
       <c r="D26" t="s">
         <v>149</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>150</v>
       </c>
     </row>

--- a/Σημειώσεις - διορθώσεις.xlsx
+++ b/Σημειώσεις - διορθώσεις.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKPar\Documents\GitHub\SLAVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951871E0-91CF-4E26-8B16-C66825551DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F0EA39-3AC4-4A78-A281-B3C5B84ACB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="10530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="158">
   <si>
     <t>date</t>
   </si>
@@ -479,9 +479,6 @@
   </si>
   <si>
     <t>SV index (MOD A4C)</t>
-  </si>
-  <si>
-    <t>MV E Vek</t>
   </si>
   <si>
     <t>EF MOD (Simpson)</t>
@@ -1417,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888694CD-1955-4787-B9C9-12DDB406919D}">
   <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1562,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>111</v>
@@ -1579,7 +1576,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>114</v>
@@ -1721,30 +1718,30 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
         <v>151</v>
-      </c>
-      <c r="E27" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Σημειώσεις - διορθώσεις.xlsx
+++ b/Σημειώσεις - διορθώσεις.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKPar\Documents\GitHub\SLAVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F0EA39-3AC4-4A78-A281-B3C5B84ACB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A8A419-12DF-4E81-9167-646C803C4A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="10530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="157">
   <si>
     <t>date</t>
   </si>
@@ -485,9 +485,6 @@
   </si>
   <si>
     <t>LVAd index A4C</t>
-  </si>
-  <si>
-    <t>LVAd index (MOD A4C)</t>
   </si>
   <si>
     <t>LVEDV (MOD A4C)</t>
@@ -644,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -681,7 +678,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -691,6 +687,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1151,10 +1160,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -1412,339 +1421,445 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888694CD-1955-4787-B9C9-12DDB406919D}">
-  <dimension ref="B2:E31"/>
+  <dimension ref="B1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="14" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" t="s">
+        <v>145</v>
+      </c>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D35" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D36" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F39" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F40" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F42" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F43" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F44" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="G45" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>155</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C34:G34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>